--- a/input_data/admin_data/URY/gpinter_URY_2011.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2011.xlsx
@@ -2334,16 +2334,16 @@
         <v>11586.78578704081</v>
       </c>
       <c r="D53">
-        <v>0.37513919006036461</v>
+        <v>0.37510988688976149</v>
       </c>
       <c r="E53">
-        <v>0.62486080993963544</v>
+        <v>0.62489011311023845</v>
       </c>
       <c r="F53">
-        <v>0.51529625505479693</v>
+        <v>0.51532555822539994</v>
       </c>
       <c r="G53">
-        <v>0.30478227744241931</v>
+        <v>0.30475297427181619</v>
       </c>
       <c r="H53">
         <v>0.17435386508820261</v>
@@ -2384,31 +2384,31 @@
         <v>16981.479565271591</v>
       </c>
       <c r="D54">
-        <v>0.41949189791074509</v>
+        <v>0.41955050253464998</v>
       </c>
       <c r="E54">
-        <v>0.58050810208925485</v>
+        <v>0.58044949746535002</v>
       </c>
       <c r="F54">
-        <v>0.54666393178421779</v>
+        <v>0.54657602484836054</v>
       </c>
       <c r="G54">
-        <v>0.29255428253289179</v>
+        <v>0.29258358484484431</v>
       </c>
       <c r="H54">
-        <v>0.15307527763940579</v>
+        <v>0.15313388226331059</v>
       </c>
       <c r="I54">
         <v>0.0077065080434846004</v>
       </c>
       <c r="J54">
-        <v>0.75794921812031157</v>
+        <v>0.75788004100993922</v>
       </c>
       <c r="K54">
         <v>0.022328575302986702</v>
       </c>
       <c r="L54">
-        <v>0.18422370594582499</v>
+        <v>0.18429288305619729</v>
       </c>
       <c r="M54">
         <v>0.035498500643620298</v>
@@ -2434,31 +2434,31 @@
         <v>23147.540109687721</v>
       </c>
       <c r="D55">
-        <v>0.41446404500966999</v>
+        <v>0.41443474183906698</v>
       </c>
       <c r="E55">
-        <v>0.58553595499032995</v>
+        <v>0.58556525816093297</v>
       </c>
       <c r="F55">
-        <v>0.53824063763699237</v>
+        <v>0.53829924397819839</v>
       </c>
       <c r="G55">
         <v>0.30106077477583082</v>
       </c>
       <c r="H55">
-        <v>0.1541639805426947</v>
+        <v>0.15410537420148859</v>
       </c>
       <c r="I55">
         <v>0.0065346070444821996</v>
       </c>
       <c r="J55">
-        <v>0.73751736044156913</v>
+        <v>0.73756811158419211</v>
       </c>
       <c r="K55">
         <v>0.021441286925164699</v>
       </c>
       <c r="L55">
-        <v>0.20941033312733459</v>
+        <v>0.20935958198471169</v>
       </c>
       <c r="M55">
         <v>0.0316310195210419</v>
@@ -2584,16 +2584,16 @@
         <v>41391.710907510038</v>
       </c>
       <c r="D58">
-        <v>0.39052335462697058</v>
+        <v>0.39049405145636762</v>
       </c>
       <c r="E58">
-        <v>0.60947664537302937</v>
+        <v>0.60950594854363249</v>
       </c>
       <c r="F58">
-        <v>0.48323858641505008</v>
+        <v>0.48326788958565309</v>
       </c>
       <c r="G58">
-        <v>0.30683349938463339</v>
+        <v>0.30680419621403038</v>
       </c>
       <c r="H58">
         <v>0.20465334349176581</v>
@@ -2634,31 +2634,31 @@
         <v>47387.227999728937</v>
       </c>
       <c r="D59">
-        <v>0.41355564672097522</v>
+        <v>0.41399519428002107</v>
       </c>
       <c r="E59">
-        <v>0.58644435327902478</v>
+        <v>0.58600480571997893</v>
       </c>
       <c r="F59">
-        <v>0.45097579558108192</v>
+        <v>0.45094649241047879</v>
       </c>
       <c r="G59">
         <v>0.27550841000996312</v>
       </c>
       <c r="H59">
-        <v>0.26885659028306857</v>
+        <v>0.26891519662427482</v>
       </c>
       <c r="I59">
-        <v>0.0046592041258864004</v>
+        <v>0.0046299009552834003</v>
       </c>
       <c r="J59">
-        <v>0.66079469220543641</v>
+        <v>0.66082566547125343</v>
       </c>
       <c r="K59">
         <v>0.017134520725197999</v>
       </c>
       <c r="L59">
-        <v>0.29877988792937188</v>
+        <v>0.29874891466355491</v>
       </c>
       <c r="M59">
         <v>0.023290899146318999</v>
@@ -2684,31 +2684,31 @@
         <v>50717.264906864431</v>
       </c>
       <c r="D60">
-        <v>0.33011984645588538</v>
+        <v>0.32973891640050401</v>
       </c>
       <c r="E60">
-        <v>0.66988015354411456</v>
+        <v>0.67026108359949599</v>
       </c>
       <c r="F60">
         <v>0.063966946992117704</v>
       </c>
       <c r="G60">
-        <v>0.041579980660474102</v>
+        <v>0.041609282972426498</v>
       </c>
       <c r="H60">
-        <v>0.89342749142907374</v>
+        <v>0.8933688868051689</v>
       </c>
       <c r="I60">
-        <v>0.0010255809183344999</v>
+        <v>0.0010548832302869</v>
       </c>
       <c r="J60">
-        <v>0.092038079372628701</v>
+        <v>0.092009140623589905</v>
       </c>
       <c r="K60">
         <v>0.0020710240396624</v>
       </c>
       <c r="L60">
-        <v>0.90316288398180555</v>
+        <v>0.90319182273084431</v>
       </c>
       <c r="M60">
         <v>0.0027280126084088</v>
@@ -2734,31 +2734,31 @@
         <v>52988.113672493113</v>
       </c>
       <c r="D61">
-        <v>0.43395065346070438</v>
+        <v>0.4338920471194983</v>
       </c>
       <c r="E61">
-        <v>0.56604934653929551</v>
+        <v>0.56610795288050175</v>
       </c>
       <c r="F61">
-        <v>0.32922112172537071</v>
+        <v>0.32925042489597373</v>
       </c>
       <c r="G61">
         <v>0.20468264666236891</v>
       </c>
       <c r="H61">
-        <v>0.46199378772783217</v>
+        <v>0.4619644845572291</v>
       </c>
       <c r="I61">
         <v>0.0041024438844282996</v>
       </c>
       <c r="J61">
-        <v>0.48435414592008952</v>
+        <v>0.48438464575020401</v>
       </c>
       <c r="K61">
         <v>0.011762316505534699</v>
       </c>
       <c r="L61">
-        <v>0.48719817046712099</v>
+        <v>0.48716767063700639</v>
       </c>
       <c r="M61">
         <v>0.016685367110347502</v>
@@ -2784,31 +2784,31 @@
         <v>56756.282763348507</v>
       </c>
       <c r="D62">
-        <v>0.42228799156068692</v>
+        <v>0.4206177108363125</v>
       </c>
       <c r="E62">
-        <v>0.57771200843931314</v>
+        <v>0.5793822891636875</v>
       </c>
       <c r="F62">
         <v>0.23389790775361891</v>
       </c>
       <c r="G62">
-        <v>0.2137373263787142</v>
+        <v>0.213649416866905</v>
       </c>
       <c r="H62">
-        <v>0.55092891050811699</v>
+        <v>0.55095821367872</v>
       </c>
       <c r="I62">
-        <v>0.0014358553595499</v>
+        <v>0.001494461700756</v>
       </c>
       <c r="J62">
-        <v>0.25761883782496331</v>
+        <v>0.25759036294277549</v>
       </c>
       <c r="K62">
         <v>0.0059406208827013996</v>
       </c>
       <c r="L62">
-        <v>0.72867134095544506</v>
+        <v>0.72869981583763277</v>
       </c>
       <c r="M62">
         <v>0.0077692003398072999</v>
@@ -2834,31 +2834,31 @@
         <v>58227.43477488499</v>
       </c>
       <c r="D63">
-        <v>0.45784862425645378</v>
+        <v>0.45910862367040761</v>
       </c>
       <c r="E63">
-        <v>0.5421513757435461</v>
+        <v>0.54089137632959239</v>
       </c>
       <c r="F63">
-        <v>0.28511149529697888</v>
+        <v>0.28640079702288512</v>
       </c>
       <c r="G63">
-        <v>0.29372637501098842</v>
+        <v>0.28871567966712569</v>
       </c>
       <c r="H63">
-        <v>0.41993143259003141</v>
+        <v>0.42371143083189261</v>
       </c>
       <c r="I63">
-        <v>0.0012306971020013</v>
+        <v>0.0011720924780964999</v>
       </c>
       <c r="J63">
-        <v>0.1436137661419975</v>
+        <v>0.14358422501034909</v>
       </c>
       <c r="K63">
         <v>0.0040122108052455</v>
       </c>
       <c r="L63">
-        <v>0.84749240440764184</v>
+        <v>0.84752194553929028</v>
       </c>
       <c r="M63">
         <v>0.004881618645835</v>
@@ -2884,31 +2884,31 @@
         <v>59541.896274330793</v>
       </c>
       <c r="D64">
-        <v>0.46272636699290859</v>
+        <v>0.46316591455195449</v>
       </c>
       <c r="E64">
-        <v>0.5372736330070913</v>
+        <v>0.53683408544804556</v>
       </c>
       <c r="F64">
-        <v>0.37472894567192172</v>
+        <v>0.37338099982418099</v>
       </c>
       <c r="G64">
-        <v>0.30155892867608269</v>
+        <v>0.30668698353161811</v>
       </c>
       <c r="H64">
-        <v>0.32151438785676612</v>
+        <v>0.31773427884897149</v>
       </c>
       <c r="I64">
         <v>0.0021977377952294001</v>
       </c>
       <c r="J64">
-        <v>0.3531569802910649</v>
+        <v>0.35318587011198721</v>
       </c>
       <c r="K64">
         <v>0.0081702577887979994</v>
       </c>
       <c r="L64">
-        <v>0.62869241304123291</v>
+        <v>0.6286635232203106</v>
       </c>
       <c r="M64">
         <v>0.0099803488743813</v>
@@ -2934,22 +2934,22 @@
         <v>62748.627008581912</v>
       </c>
       <c r="D65">
-        <v>0.38813842412166322</v>
+        <v>0.38872447036071139</v>
       </c>
       <c r="E65">
-        <v>0.61186157587833678</v>
+        <v>0.61127552963928855</v>
       </c>
       <c r="F65">
-        <v>0.22741524306267771</v>
+        <v>0.22744454537462999</v>
       </c>
       <c r="G65">
-        <v>0.13739854074486479</v>
+        <v>0.13736923843291229</v>
       </c>
       <c r="H65">
-        <v>0.63307644973188382</v>
+        <v>0.63310575204383623</v>
       </c>
       <c r="I65">
-        <v>0.0021097664605737002</v>
+        <v>0.0020804641486212999</v>
       </c>
       <c r="J65">
         <v>0.34101298467444802</v>
@@ -2984,10 +2984,10 @@
         <v>65860.369521337285</v>
       </c>
       <c r="D66">
-        <v>0.49598546562738088</v>
+        <v>0.4953994022153197</v>
       </c>
       <c r="E66">
-        <v>0.50401453437261912</v>
+        <v>0.50460059778468036</v>
       </c>
       <c r="F66">
         <v>0.27996249194162809</v>
@@ -2996,10 +2996,10 @@
         <v>0.1649475473246205</v>
       </c>
       <c r="H66">
-        <v>0.55183730879681181</v>
+        <v>0.5518080056262088</v>
       </c>
       <c r="I66">
-        <v>0.0032526519369396002</v>
+        <v>0.0032819551075425999</v>
       </c>
       <c r="J66">
         <v>0.41838168496828182</v>
@@ -3190,10 +3190,10 @@
         <v>0.55872355388853068</v>
       </c>
       <c r="F70">
-        <v>0.34070796460176989</v>
+        <v>0.34067866143116687</v>
       </c>
       <c r="G70">
-        <v>0.1832327257809295</v>
+        <v>0.1832620289515326</v>
       </c>
       <c r="H70">
         <v>0.47353923694543748</v>
@@ -3243,22 +3243,22 @@
         <v>0.40510446274211043</v>
       </c>
       <c r="G71">
-        <v>0.2257450112813901</v>
+        <v>0.22571570896943771</v>
       </c>
       <c r="H71">
-        <v>0.36619099246930581</v>
+        <v>0.36622029478125823</v>
       </c>
       <c r="I71">
         <v>0.0029595335071937001</v>
       </c>
       <c r="J71">
-        <v>0.61306252120631566</v>
+        <v>0.61305646595435059</v>
       </c>
       <c r="K71">
         <v>0.0138587950574017</v>
       </c>
       <c r="L71">
-        <v>0.35761597510012688</v>
+        <v>0.35762203035209189</v>
       </c>
       <c r="M71">
         <v>0.015462708629445</v>
@@ -3284,31 +3284,31 @@
         <v>94036.703120192455</v>
       </c>
       <c r="D72">
-        <v>0.47855007911856062</v>
+        <v>0.47857938228916369</v>
       </c>
       <c r="E72">
-        <v>0.52144992088143938</v>
+        <v>0.52142061771083625</v>
       </c>
       <c r="F72">
         <v>0.39576862216491832</v>
       </c>
       <c r="G72">
-        <v>0.21531969759127939</v>
+        <v>0.2153490007618824</v>
       </c>
       <c r="H72">
-        <v>0.38554181562445061</v>
+        <v>0.38551251245384749</v>
       </c>
       <c r="I72">
         <v>0.0033698646193518001</v>
       </c>
       <c r="J72">
-        <v>0.59714965426452893</v>
+        <v>0.59715538204486351</v>
       </c>
       <c r="K72">
         <v>0.014428653242911999</v>
       </c>
       <c r="L72">
-        <v>0.37418082738248881</v>
+        <v>0.37417509960215428</v>
       </c>
       <c r="M72">
         <v>0.014240865096970499</v>
@@ -3334,16 +3334,16 @@
         <v>98895.088668418146</v>
       </c>
       <c r="D73">
-        <v>0.49241047881380767</v>
+        <v>0.49235187247260148</v>
       </c>
       <c r="E73">
-        <v>0.50758952118619227</v>
+        <v>0.50764812752739852</v>
       </c>
       <c r="F73">
-        <v>0.37874348004454078</v>
+        <v>0.3787727832151439</v>
       </c>
       <c r="G73">
-        <v>0.21115864736564499</v>
+        <v>0.2111293441950419</v>
       </c>
       <c r="H73">
         <v>0.40754849674734811</v>
@@ -3384,10 +3384,10 @@
         <v>103783.7596358821</v>
       </c>
       <c r="D74">
-        <v>0.50083511589064378</v>
+        <v>0.5008644182025962</v>
       </c>
       <c r="E74">
-        <v>0.49916488410935622</v>
+        <v>0.4991355817974038</v>
       </c>
       <c r="F74">
         <v>0.41492073724616868</v>
@@ -3434,31 +3434,31 @@
         <v>108966.8095202338</v>
       </c>
       <c r="D75">
-        <v>0.50237355681884777</v>
+        <v>0.50234425364824475</v>
       </c>
       <c r="E75">
-        <v>0.49762644318115218</v>
+        <v>0.49765574635175519</v>
       </c>
       <c r="F75">
-        <v>0.42718162105139779</v>
+        <v>0.42715231788079472</v>
       </c>
       <c r="G75">
         <v>0.22680654046767859</v>
       </c>
       <c r="H75">
-        <v>0.34287639922639629</v>
+        <v>0.34290570239699941</v>
       </c>
       <c r="I75">
         <v>0.0031354392545273001</v>
       </c>
       <c r="J75">
-        <v>0.6445431375314713</v>
+        <v>0.64451308106944971</v>
       </c>
       <c r="K75">
         <v>0.0136105947537051</v>
       </c>
       <c r="L75">
-        <v>0.32663948549235883</v>
+        <v>0.32666954195438042</v>
       </c>
       <c r="M75">
         <v>0.015206782215625599</v>
@@ -3484,31 +3484,31 @@
         <v>114738.6352274933</v>
       </c>
       <c r="D76">
-        <v>0.51180917775303292</v>
+        <v>0.51183848092363593</v>
       </c>
       <c r="E76">
-        <v>0.48819082224696708</v>
+        <v>0.48816151907636413</v>
       </c>
       <c r="F76">
-        <v>0.43169430932426889</v>
+        <v>0.43172361249487201</v>
       </c>
       <c r="G76">
         <v>0.22633768973802959</v>
       </c>
       <c r="H76">
-        <v>0.33862743948895269</v>
+        <v>0.33859813631834962</v>
       </c>
       <c r="I76">
         <v>0.0033405614487488</v>
       </c>
       <c r="J76">
-        <v>0.64904204953175226</v>
+        <v>0.649070594029998</v>
       </c>
       <c r="K76">
         <v>0.015752626961537199</v>
       </c>
       <c r="L76">
-        <v>0.31927432798689148</v>
+        <v>0.31924578348864591</v>
       </c>
       <c r="M76">
         <v>0.015930995523536499</v>
@@ -3534,31 +3534,31 @@
         <v>120723.5679410731</v>
       </c>
       <c r="D77">
-        <v>0.50068860433088169</v>
+        <v>0.50065930201892928</v>
       </c>
       <c r="E77">
-        <v>0.49931139566911831</v>
+        <v>0.49934069798107072</v>
       </c>
       <c r="F77">
-        <v>0.42878073079966011</v>
+        <v>0.4287514284877077</v>
       </c>
       <c r="G77">
         <v>0.21680780613590411</v>
       </c>
       <c r="H77">
-        <v>0.35206727810824268</v>
+        <v>0.35209658042019509</v>
       </c>
       <c r="I77">
         <v>0.0023441849561929998</v>
       </c>
       <c r="J77">
-        <v>0.63907157645247781</v>
+        <v>0.63901154635300617</v>
       </c>
       <c r="K77">
         <v>0.0143111055164652</v>
       </c>
       <c r="L77">
-        <v>0.33126716956595081</v>
+        <v>0.33132719966542229</v>
       </c>
       <c r="M77">
         <v>0.0153501484682951</v>
@@ -3584,31 +3584,31 @@
         <v>126815.16006307511</v>
       </c>
       <c r="D78">
-        <v>0.52572818378948605</v>
+        <v>0.52575748696008906</v>
       </c>
       <c r="E78">
-        <v>0.47427181621051401</v>
+        <v>0.47424251303991088</v>
       </c>
       <c r="F78">
-        <v>0.44186250952353051</v>
+        <v>0.44189181269413352</v>
       </c>
       <c r="G78">
         <v>0.23093828752271001</v>
       </c>
       <c r="H78">
-        <v>0.32377073199320172</v>
+        <v>0.3237414288225986</v>
       </c>
       <c r="I78">
         <v>0.0034284709605579</v>
       </c>
       <c r="J78">
-        <v>0.66566032524749019</v>
+        <v>0.66571747346344434</v>
       </c>
       <c r="K78">
         <v>0.015269684278758199</v>
       </c>
       <c r="L78">
-        <v>0.30374856834501152</v>
+        <v>0.30369142012905731</v>
       </c>
       <c r="M78">
         <v>0.0153214221295123</v>
@@ -3634,16 +3634,16 @@
         <v>133493.56480961741</v>
       </c>
       <c r="D79">
-        <v>0.53497230931520501</v>
+        <v>0.53494300700325259</v>
       </c>
       <c r="E79">
-        <v>0.46502769068479499</v>
+        <v>0.46505699299674741</v>
       </c>
       <c r="F79">
-        <v>0.44829607055996717</v>
+        <v>0.44826676824801481</v>
       </c>
       <c r="G79">
-        <v>0.2475459313739854</v>
+        <v>0.24757523368593781</v>
       </c>
       <c r="H79">
         <v>0.3003486975122337</v>
@@ -3684,16 +3684,16 @@
         <v>141037.9915643498</v>
       </c>
       <c r="D80">
-        <v>0.54278262908046648</v>
+        <v>0.54281193225106961</v>
       </c>
       <c r="E80">
-        <v>0.45721737091953352</v>
+        <v>0.45718806774893039</v>
       </c>
       <c r="F80">
-        <v>0.46911445818437553</v>
+        <v>0.46914376135497859</v>
       </c>
       <c r="G80">
-        <v>0.26205825470315891</v>
+        <v>0.26202895153255579</v>
       </c>
       <c r="H80">
         <v>0.26528160346949542</v>
@@ -3890,10 +3890,10 @@
         <v>0.4717517435386509</v>
       </c>
       <c r="F84">
-        <v>0.43682236417980419</v>
+        <v>0.43685166735040731</v>
       </c>
       <c r="G84">
-        <v>0.2807536775479107</v>
+        <v>0.28072437437730757</v>
       </c>
       <c r="H84">
         <v>0.27958155072378832</v>
@@ -3940,10 +3940,10 @@
         <v>0.45837606587159729</v>
       </c>
       <c r="F85">
-        <v>0.43469979781404761</v>
+        <v>0.43467049550209508</v>
       </c>
       <c r="G85">
-        <v>0.29190963166993877</v>
+        <v>0.29193893398189119</v>
       </c>
       <c r="H85">
         <v>0.2695812699622</v>
